--- a/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um0606.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1102.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1105.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1108.ssb</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,15 +138,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -159,10 +159,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,8 +512,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="6">
         <v>103</v>
       </c>
@@ -525,6 +527,16 @@
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um1108.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1203.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1206.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1302.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1305.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1308.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1403.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1406.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1503.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1603.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1606.ssb</t>
   </si>
 </sst>
 </file>
@@ -445,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +569,56 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -106,6 +106,90 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um1606.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We came running when we heard\nthe world\'s in danger!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I tell you, this is no time to be\nsoaking in the Hot Spring!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So...[K]we\'ve come but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are we supposed to\ndo now...?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как только мы узнали, что мир\nв опасности, мы сразу же прибежали сюда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорю вам, нет времени мокнуть\nв Горячих Источниках!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так...[K] Мы здесь, но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что нам теперь делать?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óïìûëï íú ôèîàìé, œóï íéñ\nâ ïðàòîïòóé, íú òñàèô çå ðñéáåçàìé òýäà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñý âàí, îåó âñåíåîé íïëîôóû\nâ Ãïñÿœéö Éòóïœîéëàö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë...[K] Íú èäåòû, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï îàí óåðåñû äåìàóû?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It turns out we weren\'t being\nhelpful in any way…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So we came back to the\nHot Spring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I feel guilty for being relaxed\nas I say this, but...[K]we\'re counting on you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stop the planet\'s paralysis or\nsomething! You can do it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оказалось, что мы не можем\nничем помочь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому мы вернулись на Горячие\nИсточники.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я немного стыжусь того, что тут\nотдыхаю, но...[K] Мы надеемся на вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Остановите планетарный паралич\nили что там ещё! Вы справитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïëàèàìïòû, œóï íú îå íïçåí\nîéœåí ðïíïœû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô íú âåñîôìéòû îà Ãïñÿœéå\nÉòóïœîéëé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îåíîïãï òóúçôòû óïãï, œóï óôó\nïóäúöàý, îï...[K] Íú îàäååíòÿ îà âàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïòóàîïâéóå ðìàîåóàñîúê ðàñàìéœ\néìé œóï óàí åþæ! Âú òðñàâéóåòû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2503.ssb</t>
   </si>
 </sst>
 </file>
@@ -136,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,11 +252,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -193,6 +286,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -475,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +718,137 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4">
+        <v>69</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>72</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>75</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
+        <v>78</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -190,6 +190,30 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um2503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We owe a lot to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can relax like this because it\'s\npeaceful.[K] Thanks to you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/P02P01A/us0103.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы у вас в долгу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В округе царит мир и я могу\nрасслабиться.[K] Всё благодаря вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ô âàò â äïìãô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ïëñôãå øàñéó íéñ é ÿ íïãô\nñàòòìàáéóûòÿ.[K] Âòæ áìàãïäàñÿ âàí!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us3103.ssb</t>
   </si>
 </sst>
 </file>
@@ -574,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,17 +860,52 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
         <v>50</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="9" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Праймейп.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/us3103.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us0203.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us0403.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2003.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2006.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2009.ssb</t>
   </si>
 </sst>
 </file>
@@ -598,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,6 +923,31 @@
         <v>63</v>
       </c>
     </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
